--- a/config_12.15/active_daily_task_info_config.xlsx
+++ b/config_12.15/active_daily_task_info_config.xlsx
@@ -1348,7 +1348,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1385,6 +1385,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1418,7 +1424,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1498,6 +1504,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1874,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1937,36 +1952,35 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="8">
+    <row r="2" spans="1:16" s="28" customFormat="1">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="28">
         <v>10</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9">
+      <c r="D2" s="29">
         <v>12512</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="28" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2011,38 +2025,38 @@
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="24" customFormat="1">
-      <c r="A4" s="24">
+    <row r="4" spans="1:16" s="28" customFormat="1">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="28">
         <v>10</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="29">
         <v>12521</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2151,7 +2165,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="I7" s="24" t="s">
         <v>27</v>
@@ -3016,7 +3030,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/config_12.15/active_daily_task_info_config.xlsx
+++ b/config_12.15/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="302">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1254,6 +1254,10 @@
   </si>
   <si>
     <t>"v5三倍", ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1800,7 +1804,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1889,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2926,18 +2930,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27">
+    <row r="1" spans="1:5" ht="27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2948,10 +2953,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5">
+    <row r="2" spans="1:5" ht="16.5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2961,11 +2969,14 @@
       <c r="C2" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5">
+    <row r="3" spans="1:5" ht="16.5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2975,11 +2986,14 @@
       <c r="C3" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2989,9 +3003,10 @@
       <c r="C4" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.5">
+      <c r="D4" s="7"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3001,11 +3016,14 @@
       <c r="C5" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3015,13 +3033,17 @@
       <c r="C6" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>211</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config_12.15/active_daily_task_info_config.xlsx
+++ b/config_12.15/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="180">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -780,6 +780,15 @@
   <si>
     <t>actp_own_task_p_task_fish_daily_official</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计捕鱼</t>
+  </si>
+  <si>
+    <t>rw_icon_bh</t>
+  </si>
+  <si>
+    <t>3D捕鱼中捕获任意100条鱼</t>
   </si>
 </sst>
 </file>
@@ -1377,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1517,9 +1526,18 @@
       <c r="B4" s="20">
         <v>12</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="D4" s="21">
+        <v>12521</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>179</v>
+      </c>
       <c r="H4" s="20" t="s">
         <v>37</v>
       </c>
@@ -1809,13 +1827,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="4" width="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.375" customWidth="1"/>
     <col min="6" max="6" width="36.625" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>

--- a/config_12.15/active_daily_task_info_config.xlsx
+++ b/config_12.15/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
@@ -817,14 +817,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>signin_cpl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>active_task_item</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1258,6 +1250,14 @@
   </si>
   <si>
     <t>vip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signin_cpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1804,7 +1804,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1837,13 +1837,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E2">
         <v>13000</v>
@@ -1854,10 +1854,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
         <v>141</v>
@@ -1893,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1999,7 +1999,7 @@
         <v>120</v>
       </c>
       <c r="D3" s="25">
-        <v>12520</v>
+        <v>12545</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>20</v>
@@ -2026,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="28" customFormat="1">
@@ -2075,7 +2075,7 @@
         <v>136</v>
       </c>
       <c r="D5" s="25">
-        <v>12522</v>
+        <v>12546</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>21</v>
@@ -2102,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="24" customFormat="1">
@@ -2116,7 +2116,7 @@
         <v>121</v>
       </c>
       <c r="D6" s="25">
-        <v>12523</v>
+        <v>12547</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>22</v>
@@ -2143,7 +2143,7 @@
         <v>3</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="24" customFormat="1">
@@ -2157,7 +2157,7 @@
         <v>135</v>
       </c>
       <c r="D7" s="25">
-        <v>12516</v>
+        <v>12543</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>29</v>
@@ -2184,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="24" customFormat="1">
@@ -2198,7 +2198,7 @@
         <v>138</v>
       </c>
       <c r="D8" s="25">
-        <v>12519</v>
+        <v>12544</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>11</v>
@@ -2932,7 +2932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2953,7 +2953,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>192</v>
@@ -2967,13 +2967,13 @@
         <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5">
@@ -2984,13 +2984,13 @@
         <v>60</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D3" s="7">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5">
@@ -3001,7 +3001,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="3"/>
@@ -3014,13 +3014,13 @@
         <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D5" s="7">
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5">
@@ -3031,13 +3031,13 @@
         <v>150</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D6" s="7">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3072,13 +3072,13 @@
   <sheetData>
     <row r="1" spans="1:16" ht="27">
       <c r="A1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -3090,13 +3090,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
@@ -3123,22 +3123,22 @@
         <v>12512</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>223</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>13</v>
@@ -3161,19 +3161,19 @@
         <v>20</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>13</v>
@@ -3202,22 +3202,22 @@
         <v>23</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>13</v>
@@ -3228,7 +3228,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C5" s="9">
         <v>12522</v>
@@ -3240,19 +3240,19 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K5" s="24" t="s">
         <v>13</v>
@@ -3281,19 +3281,19 @@
         <v>15</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K6" s="24" t="s">
         <v>13</v>
@@ -3310,31 +3310,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C7" s="9">
         <v>12516</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>32</v>
@@ -3351,31 +3351,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C8" s="9">
         <v>12519</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>33</v>
@@ -3392,7 +3392,7 @@
         <v>12525</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>69</v>
@@ -3404,13 +3404,13 @@
         <v>26</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>13</v>
@@ -3427,22 +3427,22 @@
         <v>12508</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>59</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>13</v>
@@ -3471,16 +3471,16 @@
         <v>63</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>13</v>
@@ -3497,13 +3497,13 @@
         <v>12528</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>69</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>26</v>
@@ -3512,7 +3512,7 @@
         <v>27</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>13</v>
@@ -3532,25 +3532,25 @@
         <v>12526</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>13</v>
@@ -3567,22 +3567,22 @@
         <v>12527</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>33</v>
@@ -3611,13 +3611,13 @@
         <v>50</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>66</v>
@@ -3637,25 +3637,25 @@
         <v>12532</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>13</v>
@@ -3672,10 +3672,10 @@
         <v>12531</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>86</v>
@@ -3684,10 +3684,10 @@
         <v>26</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>13</v>
@@ -3707,7 +3707,7 @@
         <v>12511</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>67</v>
@@ -3716,16 +3716,16 @@
         <v>55</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>13</v>
@@ -3742,22 +3742,22 @@
         <v>12530</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>116</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>33</v>
@@ -3783,16 +3783,16 @@
         <v>16</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J20" s="12" t="s">
         <v>13</v>
@@ -3812,7 +3812,7 @@
         <v>12535</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>69</v>
@@ -3821,16 +3821,16 @@
         <v>85</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>13</v>
@@ -3856,16 +3856,16 @@
         <v>54</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>13</v>
@@ -3885,19 +3885,19 @@
         <v>48</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>47</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J23" s="12" t="s">
         <v>33</v>
@@ -3917,25 +3917,25 @@
         <v>12538</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G24" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>250</v>
-      </c>
       <c r="J24" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>13</v>
@@ -3955,19 +3955,19 @@
         <v>11</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G25" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I25" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>296</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>33</v>
@@ -3990,19 +3990,19 @@
         <v>48</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>33</v>
@@ -4022,22 +4022,22 @@
         <v>12541</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>116</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J27" s="15" t="s">
         <v>33</v>
@@ -4060,22 +4060,22 @@
         <v>48</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>47</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>119</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>33</v>

--- a/config_12.15/active_daily_task_info_config.xlsx
+++ b/config_12.15/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="177">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -467,22 +467,6 @@
   </si>
   <si>
     <t>"x20000","x50"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"vip1双倍", ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"vip2三倍", ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"vip3三倍", ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"vip5三倍", ""</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1304,7 +1288,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1337,13 +1321,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E2">
         <v>13002</v>
@@ -1354,10 +1338,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
         <v>53</v>
@@ -1393,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1493,7 +1477,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="17">
         <v>12545</v>
@@ -1523,7 +1507,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="20" customFormat="1">
@@ -1531,7 +1515,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
@@ -1554,7 +1538,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="17">
         <v>12546</v>
@@ -1584,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="16" customFormat="1">
@@ -1592,7 +1576,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="16">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="17">
@@ -1623,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="16" customFormat="1">
@@ -1631,7 +1615,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" s="17">
         <v>12543</v>
@@ -1661,7 +1645,7 @@
         <v>5</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="16" customFormat="1">
@@ -1727,7 +1711,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>104</v>
@@ -1741,13 +1725,13 @@
         <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5">
@@ -1758,13 +1742,13 @@
         <v>60</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D3" s="7">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5">
@@ -1775,7 +1759,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="3"/>
@@ -1788,13 +1772,13 @@
         <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D5" s="7">
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5">
@@ -1805,13 +1789,13 @@
         <v>150</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D6" s="7">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1823,10 +1807,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1840,22 +1824,20 @@
     <col min="10" max="10" width="38" customWidth="1"/>
     <col min="11" max="11" width="40.125" customWidth="1"/>
     <col min="12" max="12" width="30.625" customWidth="1"/>
-    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27">
+    <row r="1" spans="1:15" ht="27">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1867,13 +1849,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -1881,17 +1863,11 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1903,22 +1879,22 @@
         <v>12512</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>13</v>
@@ -1927,12 +1903,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="16" customFormat="1">
+    <row r="3" spans="1:15" s="16" customFormat="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9">
@@ -1942,19 +1918,19 @@
         <v>19</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>13</v>
@@ -1962,19 +1938,13 @@
       <c r="L3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="16">
-        <v>1</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="16" customFormat="1">
+    </row>
+    <row r="4" spans="1:15" s="16" customFormat="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9">
@@ -1984,33 +1954,33 @@
         <v>22</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L4" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="16" customFormat="1">
+    <row r="5" spans="1:15" s="16" customFormat="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9">
@@ -2023,39 +1993,33 @@
         <v>18</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="16">
-        <v>2</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="16" customFormat="1">
+    </row>
+    <row r="6" spans="1:15" s="16" customFormat="1">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D6" s="9">
         <v>12523</v>
@@ -2067,73 +2031,61 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="16">
-        <v>3</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="16" customFormat="1">
+    </row>
+    <row r="7" spans="1:15" s="16" customFormat="1">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9">
         <v>12516</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="16">
-        <v>5</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="16" customFormat="1">
+    </row>
+    <row r="8" spans="1:15" s="16" customFormat="1">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -2141,75 +2093,75 @@
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D8" s="9">
         <v>12519</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L8" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:15">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D9" s="9">
         <v>12538</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:15">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -2217,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D10" s="9">
         <v>12539</v>
@@ -2226,19 +2178,19 @@
         <v>11</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>31</v>
@@ -2445,7 +2397,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
